--- a/artfynd/A 6046-2019.xlsx
+++ b/artfynd/A 6046-2019.xlsx
@@ -5488,7 +5488,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111675573</v>
+        <v>111675583</v>
       </c>
       <c r="B35" t="n">
         <v>42708</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>690487.9917822112</v>
+        <v>690415.8809986882</v>
       </c>
       <c r="R35" t="n">
-        <v>6661106.352564453</v>
+        <v>6661424.403280765</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111675571</v>
+        <v>111675577</v>
       </c>
       <c r="B36" t="n">
         <v>42708</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>690509.4285896254</v>
+        <v>690430.9193086301</v>
       </c>
       <c r="R36" t="n">
-        <v>6661040.900344189</v>
+        <v>6661356.623615522</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111675582</v>
+        <v>111675580</v>
       </c>
       <c r="B37" t="n">
         <v>42708</v>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>690352.3333891984</v>
+        <v>690370.5537696742</v>
       </c>
       <c r="R37" t="n">
-        <v>6661470.655078794</v>
+        <v>6661292.946251329</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111675579</v>
+        <v>111675573</v>
       </c>
       <c r="B38" t="n">
         <v>42708</v>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>690425.8424831247</v>
+        <v>690487.9917822112</v>
       </c>
       <c r="R38" t="n">
-        <v>6661357.862056008</v>
+        <v>6661106.352564453</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111675583</v>
+        <v>111675572</v>
       </c>
       <c r="B39" t="n">
         <v>42708</v>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>690415.8809986882</v>
+        <v>690494.5947179901</v>
       </c>
       <c r="R39" t="n">
-        <v>6661424.403280765</v>
+        <v>6661104.692649405</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111675584</v>
+        <v>111675581</v>
       </c>
       <c r="B40" t="n">
         <v>42708</v>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6252,10 +6252,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>690414.984509701</v>
+        <v>690413.7262835158</v>
       </c>
       <c r="R40" t="n">
-        <v>6661422.355185229</v>
+        <v>6661427.29424896</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111675578</v>
+        <v>111675574</v>
       </c>
       <c r="B41" t="n">
         <v>42708</v>
@@ -6392,10 +6392,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>690368.3990222017</v>
+        <v>690486.6986671695</v>
       </c>
       <c r="R41" t="n">
-        <v>6661295.837351476</v>
+        <v>6661102.281881573</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111675577</v>
+        <v>111675579</v>
       </c>
       <c r="B42" t="n">
         <v>42708</v>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6532,10 +6532,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>690430.9193086301</v>
+        <v>690425.8424831247</v>
       </c>
       <c r="R42" t="n">
-        <v>6661356.623615522</v>
+        <v>6661357.862056008</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111675572</v>
+        <v>111675575</v>
       </c>
       <c r="B43" t="n">
         <v>42708</v>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6672,10 +6672,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>690494.5947179901</v>
+        <v>690480.7418955797</v>
       </c>
       <c r="R43" t="n">
-        <v>6661104.692649405</v>
+        <v>6661091.463633558</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111675580</v>
+        <v>111675578</v>
       </c>
       <c r="B44" t="n">
         <v>42708</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6812,10 +6812,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>690370.5537696742</v>
+        <v>690368.3990222017</v>
       </c>
       <c r="R44" t="n">
-        <v>6661292.946251329</v>
+        <v>6661295.837351476</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111675574</v>
+        <v>111675582</v>
       </c>
       <c r="B45" t="n">
         <v>42708</v>
@@ -6952,10 +6952,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>690486.6986671695</v>
+        <v>690352.3333891984</v>
       </c>
       <c r="R45" t="n">
-        <v>6661102.281881573</v>
+        <v>6661470.655078794</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111675581</v>
+        <v>111675571</v>
       </c>
       <c r="B46" t="n">
         <v>42708</v>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>690413.7262835158</v>
+        <v>690509.4285896254</v>
       </c>
       <c r="R46" t="n">
-        <v>6661427.29424896</v>
+        <v>6661040.900344189</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111675575</v>
+        <v>111675584</v>
       </c>
       <c r="B47" t="n">
         <v>42708</v>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -7232,10 +7232,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>690480.7418955797</v>
+        <v>690414.984509701</v>
       </c>
       <c r="R47" t="n">
-        <v>6661091.463633558</v>
+        <v>6661422.355185229</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>

--- a/artfynd/A 6046-2019.xlsx
+++ b/artfynd/A 6046-2019.xlsx
@@ -5488,7 +5488,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111675583</v>
+        <v>111675573</v>
       </c>
       <c r="B35" t="n">
         <v>42708</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>690415.8809986882</v>
+        <v>690487.9917822112</v>
       </c>
       <c r="R35" t="n">
-        <v>6661424.403280765</v>
+        <v>6661106.352564453</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111675577</v>
+        <v>111675580</v>
       </c>
       <c r="B36" t="n">
         <v>42708</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>690430.9193086301</v>
+        <v>690370.5537696742</v>
       </c>
       <c r="R36" t="n">
-        <v>6661356.623615522</v>
+        <v>6661292.946251329</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111675580</v>
+        <v>111675574</v>
       </c>
       <c r="B37" t="n">
         <v>42708</v>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>690370.5537696742</v>
+        <v>690486.6986671695</v>
       </c>
       <c r="R37" t="n">
-        <v>6661292.946251329</v>
+        <v>6661102.281881573</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111675573</v>
+        <v>111675579</v>
       </c>
       <c r="B38" t="n">
         <v>42708</v>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>690487.9917822112</v>
+        <v>690425.8424831247</v>
       </c>
       <c r="R38" t="n">
-        <v>6661106.352564453</v>
+        <v>6661357.862056008</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111675572</v>
+        <v>111675581</v>
       </c>
       <c r="B39" t="n">
         <v>42708</v>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>690494.5947179901</v>
+        <v>690413.7262835158</v>
       </c>
       <c r="R39" t="n">
-        <v>6661104.692649405</v>
+        <v>6661427.29424896</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111675581</v>
+        <v>111675572</v>
       </c>
       <c r="B40" t="n">
         <v>42708</v>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6252,10 +6252,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>690413.7262835158</v>
+        <v>690494.5947179901</v>
       </c>
       <c r="R40" t="n">
-        <v>6661427.29424896</v>
+        <v>6661104.692649405</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111675574</v>
+        <v>111675577</v>
       </c>
       <c r="B41" t="n">
         <v>42708</v>
@@ -6392,10 +6392,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>690486.6986671695</v>
+        <v>690430.9193086301</v>
       </c>
       <c r="R41" t="n">
-        <v>6661102.281881573</v>
+        <v>6661356.623615522</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111675579</v>
+        <v>111675578</v>
       </c>
       <c r="B42" t="n">
         <v>42708</v>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6532,10 +6532,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>690425.8424831247</v>
+        <v>690368.3990222017</v>
       </c>
       <c r="R42" t="n">
-        <v>6661357.862056008</v>
+        <v>6661295.837351476</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111675575</v>
+        <v>111675571</v>
       </c>
       <c r="B43" t="n">
         <v>42708</v>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6672,10 +6672,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>690480.7418955797</v>
+        <v>690509.4285896254</v>
       </c>
       <c r="R43" t="n">
-        <v>6661091.463633558</v>
+        <v>6661040.900344189</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111675578</v>
+        <v>111675583</v>
       </c>
       <c r="B44" t="n">
         <v>42708</v>
@@ -6812,10 +6812,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>690368.3990222017</v>
+        <v>690415.8809986882</v>
       </c>
       <c r="R44" t="n">
-        <v>6661295.837351476</v>
+        <v>6661424.403280765</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111675571</v>
+        <v>111675584</v>
       </c>
       <c r="B46" t="n">
         <v>42708</v>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>690509.4285896254</v>
+        <v>690414.984509701</v>
       </c>
       <c r="R46" t="n">
-        <v>6661040.900344189</v>
+        <v>6661422.355185229</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111675584</v>
+        <v>111675575</v>
       </c>
       <c r="B47" t="n">
         <v>42708</v>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -7232,10 +7232,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>690414.984509701</v>
+        <v>690480.7418955797</v>
       </c>
       <c r="R47" t="n">
-        <v>6661422.355185229</v>
+        <v>6661091.463633558</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>

--- a/artfynd/A 6046-2019.xlsx
+++ b/artfynd/A 6046-2019.xlsx
@@ -5488,7 +5488,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111675573</v>
+        <v>111675584</v>
       </c>
       <c r="B35" t="n">
         <v>42708</v>
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>690487.9917822112</v>
+        <v>690414.984509701</v>
       </c>
       <c r="R35" t="n">
-        <v>6661106.352564453</v>
+        <v>6661422.355185229</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111675580</v>
+        <v>111675582</v>
       </c>
       <c r="B36" t="n">
         <v>42708</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>690370.5537696742</v>
+        <v>690352.3333891984</v>
       </c>
       <c r="R36" t="n">
-        <v>6661292.946251329</v>
+        <v>6661470.655078794</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111675574</v>
+        <v>111675575</v>
       </c>
       <c r="B37" t="n">
         <v>42708</v>
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>690486.6986671695</v>
+        <v>690480.7418955797</v>
       </c>
       <c r="R37" t="n">
-        <v>6661102.281881573</v>
+        <v>6661091.463633558</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111675579</v>
+        <v>111675574</v>
       </c>
       <c r="B38" t="n">
         <v>42708</v>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>690425.8424831247</v>
+        <v>690486.6986671695</v>
       </c>
       <c r="R38" t="n">
-        <v>6661357.862056008</v>
+        <v>6661102.281881573</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111675572</v>
+        <v>111675580</v>
       </c>
       <c r="B40" t="n">
         <v>42708</v>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6252,10 +6252,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>690494.5947179901</v>
+        <v>690370.5537696742</v>
       </c>
       <c r="R40" t="n">
-        <v>6661104.692649405</v>
+        <v>6661292.946251329</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111675577</v>
+        <v>111675579</v>
       </c>
       <c r="B41" t="n">
         <v>42708</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6392,10 +6392,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>690430.9193086301</v>
+        <v>690425.8424831247</v>
       </c>
       <c r="R41" t="n">
-        <v>6661356.623615522</v>
+        <v>6661357.862056008</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111675578</v>
+        <v>111675572</v>
       </c>
       <c r="B42" t="n">
         <v>42708</v>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6532,10 +6532,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>690368.3990222017</v>
+        <v>690494.5947179901</v>
       </c>
       <c r="R42" t="n">
-        <v>6661295.837351476</v>
+        <v>6661104.692649405</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111675571</v>
+        <v>111675577</v>
       </c>
       <c r="B43" t="n">
         <v>42708</v>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6672,10 +6672,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>690509.4285896254</v>
+        <v>690430.9193086301</v>
       </c>
       <c r="R43" t="n">
-        <v>6661040.900344189</v>
+        <v>6661356.623615522</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111675583</v>
+        <v>111675573</v>
       </c>
       <c r="B44" t="n">
         <v>42708</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6812,10 +6812,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>690415.8809986882</v>
+        <v>690487.9917822112</v>
       </c>
       <c r="R44" t="n">
-        <v>6661424.403280765</v>
+        <v>6661106.352564453</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111675582</v>
+        <v>111675571</v>
       </c>
       <c r="B45" t="n">
         <v>42708</v>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6952,10 +6952,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>690352.3333891984</v>
+        <v>690509.4285896254</v>
       </c>
       <c r="R45" t="n">
-        <v>6661470.655078794</v>
+        <v>6661040.900344189</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111675584</v>
+        <v>111675583</v>
       </c>
       <c r="B46" t="n">
         <v>42708</v>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>690414.984509701</v>
+        <v>690415.8809986882</v>
       </c>
       <c r="R46" t="n">
-        <v>6661422.355185229</v>
+        <v>6661424.403280765</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111675575</v>
+        <v>111675578</v>
       </c>
       <c r="B47" t="n">
         <v>42708</v>
@@ -7232,10 +7232,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>690480.7418955797</v>
+        <v>690368.3990222017</v>
       </c>
       <c r="R47" t="n">
-        <v>6661091.463633558</v>
+        <v>6661295.837351476</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>

--- a/artfynd/A 6046-2019.xlsx
+++ b/artfynd/A 6046-2019.xlsx
@@ -5488,7 +5488,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111675584</v>
+        <v>111675575</v>
       </c>
       <c r="B35" t="n">
         <v>42708</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>690414.984509701</v>
+        <v>690480.7418955797</v>
       </c>
       <c r="R35" t="n">
-        <v>6661422.355185229</v>
+        <v>6661091.463633558</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111675582</v>
+        <v>111675584</v>
       </c>
       <c r="B36" t="n">
         <v>42708</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>690352.3333891984</v>
+        <v>690414.984509701</v>
       </c>
       <c r="R36" t="n">
-        <v>6661470.655078794</v>
+        <v>6661422.355185229</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111675575</v>
+        <v>111675574</v>
       </c>
       <c r="B37" t="n">
         <v>42708</v>
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>690480.7418955797</v>
+        <v>690486.6986671695</v>
       </c>
       <c r="R37" t="n">
-        <v>6661091.463633558</v>
+        <v>6661102.281881573</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111675574</v>
+        <v>111675583</v>
       </c>
       <c r="B38" t="n">
         <v>42708</v>
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>690486.6986671695</v>
+        <v>690415.8809986882</v>
       </c>
       <c r="R38" t="n">
-        <v>6661102.281881573</v>
+        <v>6661424.403280765</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111675581</v>
+        <v>111675571</v>
       </c>
       <c r="B39" t="n">
         <v>42708</v>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>690413.7262835158</v>
+        <v>690509.4285896254</v>
       </c>
       <c r="R39" t="n">
-        <v>6661427.29424896</v>
+        <v>6661040.900344189</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111675580</v>
+        <v>111675573</v>
       </c>
       <c r="B40" t="n">
         <v>42708</v>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6252,10 +6252,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>690370.5537696742</v>
+        <v>690487.9917822112</v>
       </c>
       <c r="R40" t="n">
-        <v>6661292.946251329</v>
+        <v>6661106.352564453</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111675572</v>
+        <v>111675577</v>
       </c>
       <c r="B42" t="n">
         <v>42708</v>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6532,10 +6532,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>690494.5947179901</v>
+        <v>690430.9193086301</v>
       </c>
       <c r="R42" t="n">
-        <v>6661104.692649405</v>
+        <v>6661356.623615522</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111675577</v>
+        <v>111675580</v>
       </c>
       <c r="B43" t="n">
         <v>42708</v>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6672,10 +6672,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>690430.9193086301</v>
+        <v>690370.5537696742</v>
       </c>
       <c r="R43" t="n">
-        <v>6661356.623615522</v>
+        <v>6661292.946251329</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111675573</v>
+        <v>111675581</v>
       </c>
       <c r="B44" t="n">
         <v>42708</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6812,10 +6812,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>690487.9917822112</v>
+        <v>690413.7262835158</v>
       </c>
       <c r="R44" t="n">
-        <v>6661106.352564453</v>
+        <v>6661427.29424896</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111675571</v>
+        <v>111675572</v>
       </c>
       <c r="B45" t="n">
         <v>42708</v>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6952,10 +6952,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>690509.4285896254</v>
+        <v>690494.5947179901</v>
       </c>
       <c r="R45" t="n">
-        <v>6661040.900344189</v>
+        <v>6661104.692649405</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111675583</v>
+        <v>111675578</v>
       </c>
       <c r="B46" t="n">
         <v>42708</v>
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>690415.8809986882</v>
+        <v>690368.3990222017</v>
       </c>
       <c r="R46" t="n">
-        <v>6661424.403280765</v>
+        <v>6661295.837351476</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111675578</v>
+        <v>111675582</v>
       </c>
       <c r="B47" t="n">
         <v>42708</v>
@@ -7232,10 +7232,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>690368.3990222017</v>
+        <v>690352.3333891984</v>
       </c>
       <c r="R47" t="n">
-        <v>6661295.837351476</v>
+        <v>6661470.655078794</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>

--- a/artfynd/A 6046-2019.xlsx
+++ b/artfynd/A 6046-2019.xlsx
@@ -5488,7 +5488,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111675575</v>
+        <v>111675572</v>
       </c>
       <c r="B35" t="n">
         <v>42708</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>690480.7418955797</v>
+        <v>690494.5947179901</v>
       </c>
       <c r="R35" t="n">
-        <v>6661091.463633558</v>
+        <v>6661104.692649405</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111675584</v>
+        <v>111675575</v>
       </c>
       <c r="B36" t="n">
         <v>42708</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>690414.984509701</v>
+        <v>690480.7418955797</v>
       </c>
       <c r="R36" t="n">
-        <v>6661422.355185229</v>
+        <v>6661091.463633558</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111675574</v>
+        <v>111675579</v>
       </c>
       <c r="B37" t="n">
         <v>42708</v>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>690486.6986671695</v>
+        <v>690425.8424831247</v>
       </c>
       <c r="R37" t="n">
-        <v>6661102.281881573</v>
+        <v>6661357.862056008</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111675583</v>
+        <v>111675573</v>
       </c>
       <c r="B38" t="n">
         <v>42708</v>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>690415.8809986882</v>
+        <v>690487.9917822112</v>
       </c>
       <c r="R38" t="n">
-        <v>6661424.403280765</v>
+        <v>6661106.352564453</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111675571</v>
+        <v>111675582</v>
       </c>
       <c r="B39" t="n">
         <v>42708</v>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>690509.4285896254</v>
+        <v>690352.3333891984</v>
       </c>
       <c r="R39" t="n">
-        <v>6661040.900344189</v>
+        <v>6661470.655078794</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111675573</v>
+        <v>111675577</v>
       </c>
       <c r="B40" t="n">
         <v>42708</v>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6252,10 +6252,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>690487.9917822112</v>
+        <v>690430.9193086301</v>
       </c>
       <c r="R40" t="n">
-        <v>6661106.352564453</v>
+        <v>6661356.623615522</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111675579</v>
+        <v>111675583</v>
       </c>
       <c r="B41" t="n">
         <v>42708</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6392,10 +6392,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>690425.8424831247</v>
+        <v>690415.8809986882</v>
       </c>
       <c r="R41" t="n">
-        <v>6661357.862056008</v>
+        <v>6661424.403280765</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111675577</v>
+        <v>111675578</v>
       </c>
       <c r="B42" t="n">
         <v>42708</v>
@@ -6532,10 +6532,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>690430.9193086301</v>
+        <v>690368.3990222017</v>
       </c>
       <c r="R42" t="n">
-        <v>6661356.623615522</v>
+        <v>6661295.837351476</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111675580</v>
+        <v>111675581</v>
       </c>
       <c r="B43" t="n">
         <v>42708</v>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6672,10 +6672,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>690370.5537696742</v>
+        <v>690413.7262835158</v>
       </c>
       <c r="R43" t="n">
-        <v>6661292.946251329</v>
+        <v>6661427.29424896</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111675581</v>
+        <v>111675584</v>
       </c>
       <c r="B44" t="n">
         <v>42708</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6812,10 +6812,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>690413.7262835158</v>
+        <v>690414.984509701</v>
       </c>
       <c r="R44" t="n">
-        <v>6661427.29424896</v>
+        <v>6661422.355185229</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111675572</v>
+        <v>111675574</v>
       </c>
       <c r="B45" t="n">
         <v>42708</v>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6952,10 +6952,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>690494.5947179901</v>
+        <v>690486.6986671695</v>
       </c>
       <c r="R45" t="n">
-        <v>6661104.692649405</v>
+        <v>6661102.281881573</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111675578</v>
+        <v>111675580</v>
       </c>
       <c r="B46" t="n">
         <v>42708</v>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>690368.3990222017</v>
+        <v>690370.5537696742</v>
       </c>
       <c r="R46" t="n">
-        <v>6661295.837351476</v>
+        <v>6661292.946251329</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111675582</v>
+        <v>111675571</v>
       </c>
       <c r="B47" t="n">
         <v>42708</v>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -7232,10 +7232,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>690352.3333891984</v>
+        <v>690509.4285896254</v>
       </c>
       <c r="R47" t="n">
-        <v>6661470.655078794</v>
+        <v>6661040.900344189</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>

--- a/artfynd/A 6046-2019.xlsx
+++ b/artfynd/A 6046-2019.xlsx
@@ -5488,7 +5488,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111675572</v>
+        <v>111675575</v>
       </c>
       <c r="B35" t="n">
         <v>42708</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>690494.5947179901</v>
+        <v>690480.7418955797</v>
       </c>
       <c r="R35" t="n">
-        <v>6661104.692649405</v>
+        <v>6661091.463633558</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111675575</v>
+        <v>111675573</v>
       </c>
       <c r="B36" t="n">
         <v>42708</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>690480.7418955797</v>
+        <v>690487.9917822112</v>
       </c>
       <c r="R36" t="n">
-        <v>6661091.463633558</v>
+        <v>6661106.352564453</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111675579</v>
+        <v>111675571</v>
       </c>
       <c r="B37" t="n">
         <v>42708</v>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>690425.8424831247</v>
+        <v>690509.4285896254</v>
       </c>
       <c r="R37" t="n">
-        <v>6661357.862056008</v>
+        <v>6661040.900344189</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111675573</v>
+        <v>111675578</v>
       </c>
       <c r="B38" t="n">
         <v>42708</v>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>690487.9917822112</v>
+        <v>690368.3990222017</v>
       </c>
       <c r="R38" t="n">
-        <v>6661106.352564453</v>
+        <v>6661295.837351476</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111675582</v>
+        <v>111675572</v>
       </c>
       <c r="B39" t="n">
         <v>42708</v>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>690352.3333891984</v>
+        <v>690494.5947179901</v>
       </c>
       <c r="R39" t="n">
-        <v>6661470.655078794</v>
+        <v>6661104.692649405</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111675577</v>
+        <v>111675579</v>
       </c>
       <c r="B40" t="n">
         <v>42708</v>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6252,10 +6252,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>690430.9193086301</v>
+        <v>690425.8424831247</v>
       </c>
       <c r="R40" t="n">
-        <v>6661356.623615522</v>
+        <v>6661357.862056008</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111675583</v>
+        <v>111675577</v>
       </c>
       <c r="B41" t="n">
         <v>42708</v>
@@ -6392,10 +6392,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>690415.8809986882</v>
+        <v>690430.9193086301</v>
       </c>
       <c r="R41" t="n">
-        <v>6661424.403280765</v>
+        <v>6661356.623615522</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111675578</v>
+        <v>111675574</v>
       </c>
       <c r="B42" t="n">
         <v>42708</v>
@@ -6532,10 +6532,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>690368.3990222017</v>
+        <v>690486.6986671695</v>
       </c>
       <c r="R42" t="n">
-        <v>6661295.837351476</v>
+        <v>6661102.281881573</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111675584</v>
+        <v>111675582</v>
       </c>
       <c r="B44" t="n">
         <v>42708</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6812,10 +6812,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>690414.984509701</v>
+        <v>690352.3333891984</v>
       </c>
       <c r="R44" t="n">
-        <v>6661422.355185229</v>
+        <v>6661470.655078794</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111675574</v>
+        <v>111675584</v>
       </c>
       <c r="B45" t="n">
         <v>42708</v>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6952,10 +6952,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>690486.6986671695</v>
+        <v>690414.984509701</v>
       </c>
       <c r="R45" t="n">
-        <v>6661102.281881573</v>
+        <v>6661422.355185229</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111675580</v>
+        <v>111675583</v>
       </c>
       <c r="B46" t="n">
         <v>42708</v>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>690370.5537696742</v>
+        <v>690415.8809986882</v>
       </c>
       <c r="R46" t="n">
-        <v>6661292.946251329</v>
+        <v>6661424.403280765</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111675571</v>
+        <v>111675580</v>
       </c>
       <c r="B47" t="n">
         <v>42708</v>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -7232,10 +7232,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>690509.4285896254</v>
+        <v>690370.5537696742</v>
       </c>
       <c r="R47" t="n">
-        <v>6661040.900344189</v>
+        <v>6661292.946251329</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>

--- a/artfynd/A 6046-2019.xlsx
+++ b/artfynd/A 6046-2019.xlsx
@@ -5488,7 +5488,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111675575</v>
+        <v>111675578</v>
       </c>
       <c r="B35" t="n">
         <v>42708</v>
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>690480.7418955797</v>
+        <v>690368.3990222017</v>
       </c>
       <c r="R35" t="n">
-        <v>6661091.463633558</v>
+        <v>6661295.837351476</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111675573</v>
+        <v>111675577</v>
       </c>
       <c r="B36" t="n">
         <v>42708</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>690487.9917822112</v>
+        <v>690430.9193086301</v>
       </c>
       <c r="R36" t="n">
-        <v>6661106.352564453</v>
+        <v>6661356.623615522</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111675571</v>
+        <v>111675573</v>
       </c>
       <c r="B37" t="n">
         <v>42708</v>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>690509.4285896254</v>
+        <v>690487.9917822112</v>
       </c>
       <c r="R37" t="n">
-        <v>6661040.900344189</v>
+        <v>6661106.352564453</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111675578</v>
+        <v>111675572</v>
       </c>
       <c r="B38" t="n">
         <v>42708</v>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>690368.3990222017</v>
+        <v>690494.5947179901</v>
       </c>
       <c r="R38" t="n">
-        <v>6661295.837351476</v>
+        <v>6661104.692649405</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111675572</v>
+        <v>111675575</v>
       </c>
       <c r="B39" t="n">
         <v>42708</v>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>690494.5947179901</v>
+        <v>690480.7418955797</v>
       </c>
       <c r="R39" t="n">
-        <v>6661104.692649405</v>
+        <v>6661091.463633558</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111675579</v>
+        <v>111675581</v>
       </c>
       <c r="B40" t="n">
         <v>42708</v>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6252,10 +6252,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>690425.8424831247</v>
+        <v>690413.7262835158</v>
       </c>
       <c r="R40" t="n">
-        <v>6661357.862056008</v>
+        <v>6661427.29424896</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111675577</v>
+        <v>111675580</v>
       </c>
       <c r="B41" t="n">
         <v>42708</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6392,10 +6392,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>690430.9193086301</v>
+        <v>690370.5537696742</v>
       </c>
       <c r="R41" t="n">
-        <v>6661356.623615522</v>
+        <v>6661292.946251329</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111675574</v>
+        <v>111675582</v>
       </c>
       <c r="B42" t="n">
         <v>42708</v>
@@ -6532,10 +6532,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>690486.6986671695</v>
+        <v>690352.3333891984</v>
       </c>
       <c r="R42" t="n">
-        <v>6661102.281881573</v>
+        <v>6661470.655078794</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111675581</v>
+        <v>111675574</v>
       </c>
       <c r="B43" t="n">
         <v>42708</v>
@@ -6672,10 +6672,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>690413.7262835158</v>
+        <v>690486.6986671695</v>
       </c>
       <c r="R43" t="n">
-        <v>6661427.29424896</v>
+        <v>6661102.281881573</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111675582</v>
+        <v>111675579</v>
       </c>
       <c r="B44" t="n">
         <v>42708</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6812,10 +6812,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>690352.3333891984</v>
+        <v>690425.8424831247</v>
       </c>
       <c r="R44" t="n">
-        <v>6661470.655078794</v>
+        <v>6661357.862056008</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111675584</v>
+        <v>111675583</v>
       </c>
       <c r="B45" t="n">
         <v>42708</v>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6952,10 +6952,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>690414.984509701</v>
+        <v>690415.8809986882</v>
       </c>
       <c r="R45" t="n">
-        <v>6661422.355185229</v>
+        <v>6661424.403280765</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111675583</v>
+        <v>111675584</v>
       </c>
       <c r="B46" t="n">
         <v>42708</v>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>690415.8809986882</v>
+        <v>690414.984509701</v>
       </c>
       <c r="R46" t="n">
-        <v>6661424.403280765</v>
+        <v>6661422.355185229</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111675580</v>
+        <v>111675571</v>
       </c>
       <c r="B47" t="n">
         <v>42708</v>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -7232,10 +7232,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>690370.5537696742</v>
+        <v>690509.4285896254</v>
       </c>
       <c r="R47" t="n">
-        <v>6661292.946251329</v>
+        <v>6661040.900344189</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>

--- a/artfynd/A 6046-2019.xlsx
+++ b/artfynd/A 6046-2019.xlsx
@@ -5488,7 +5488,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111675578</v>
+        <v>111675571</v>
       </c>
       <c r="B35" t="n">
         <v>42708</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>690368.3990222017</v>
+        <v>690509.4285896254</v>
       </c>
       <c r="R35" t="n">
-        <v>6661295.837351476</v>
+        <v>6661040.900344189</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111675577</v>
+        <v>111675579</v>
       </c>
       <c r="B36" t="n">
         <v>42708</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>690430.9193086301</v>
+        <v>690425.8424831247</v>
       </c>
       <c r="R36" t="n">
-        <v>6661356.623615522</v>
+        <v>6661357.862056008</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111675573</v>
+        <v>111675584</v>
       </c>
       <c r="B37" t="n">
         <v>42708</v>
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>690487.9917822112</v>
+        <v>690414.984509701</v>
       </c>
       <c r="R37" t="n">
-        <v>6661106.352564453</v>
+        <v>6661422.355185229</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111675572</v>
+        <v>111675573</v>
       </c>
       <c r="B38" t="n">
         <v>42708</v>
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>690494.5947179901</v>
+        <v>690487.9917822112</v>
       </c>
       <c r="R38" t="n">
-        <v>6661104.692649405</v>
+        <v>6661106.352564453</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111675575</v>
+        <v>111675574</v>
       </c>
       <c r="B39" t="n">
         <v>42708</v>
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>690480.7418955797</v>
+        <v>690486.6986671695</v>
       </c>
       <c r="R39" t="n">
-        <v>6661091.463633558</v>
+        <v>6661102.281881573</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111675581</v>
+        <v>111675575</v>
       </c>
       <c r="B40" t="n">
         <v>42708</v>
@@ -6252,10 +6252,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>690413.7262835158</v>
+        <v>690480.7418955797</v>
       </c>
       <c r="R40" t="n">
-        <v>6661427.29424896</v>
+        <v>6661091.463633558</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111675582</v>
+        <v>111675581</v>
       </c>
       <c r="B42" t="n">
         <v>42708</v>
@@ -6532,10 +6532,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>690352.3333891984</v>
+        <v>690413.7262835158</v>
       </c>
       <c r="R42" t="n">
-        <v>6661470.655078794</v>
+        <v>6661427.29424896</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111675574</v>
+        <v>111675577</v>
       </c>
       <c r="B43" t="n">
         <v>42708</v>
@@ -6672,10 +6672,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>690486.6986671695</v>
+        <v>690430.9193086301</v>
       </c>
       <c r="R43" t="n">
-        <v>6661102.281881573</v>
+        <v>6661356.623615522</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111675579</v>
+        <v>111675572</v>
       </c>
       <c r="B44" t="n">
         <v>42708</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6812,10 +6812,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>690425.8424831247</v>
+        <v>690494.5947179901</v>
       </c>
       <c r="R44" t="n">
-        <v>6661357.862056008</v>
+        <v>6661104.692649405</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111675583</v>
+        <v>111675578</v>
       </c>
       <c r="B45" t="n">
         <v>42708</v>
@@ -6952,10 +6952,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>690415.8809986882</v>
+        <v>690368.3990222017</v>
       </c>
       <c r="R45" t="n">
-        <v>6661424.403280765</v>
+        <v>6661295.837351476</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111675584</v>
+        <v>111675583</v>
       </c>
       <c r="B46" t="n">
         <v>42708</v>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>690414.984509701</v>
+        <v>690415.8809986882</v>
       </c>
       <c r="R46" t="n">
-        <v>6661422.355185229</v>
+        <v>6661424.403280765</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111675571</v>
+        <v>111675582</v>
       </c>
       <c r="B47" t="n">
         <v>42708</v>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -7232,10 +7232,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>690509.4285896254</v>
+        <v>690352.3333891984</v>
       </c>
       <c r="R47" t="n">
-        <v>6661040.900344189</v>
+        <v>6661470.655078794</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>

--- a/artfynd/A 6046-2019.xlsx
+++ b/artfynd/A 6046-2019.xlsx
@@ -5488,7 +5488,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111675571</v>
+        <v>111675581</v>
       </c>
       <c r="B35" t="n">
         <v>42708</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>690509.4285896254</v>
+        <v>690413.7262835158</v>
       </c>
       <c r="R35" t="n">
-        <v>6661040.900344189</v>
+        <v>6661427.29424896</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111675579</v>
+        <v>111675575</v>
       </c>
       <c r="B36" t="n">
         <v>42708</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>690425.8424831247</v>
+        <v>690480.7418955797</v>
       </c>
       <c r="R36" t="n">
-        <v>6661357.862056008</v>
+        <v>6661091.463633558</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111675584</v>
+        <v>111675573</v>
       </c>
       <c r="B37" t="n">
         <v>42708</v>
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>690414.984509701</v>
+        <v>690487.9917822112</v>
       </c>
       <c r="R37" t="n">
-        <v>6661422.355185229</v>
+        <v>6661106.352564453</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111675573</v>
+        <v>111675579</v>
       </c>
       <c r="B38" t="n">
         <v>42708</v>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5972,10 +5972,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>690487.9917822112</v>
+        <v>690425.8424831247</v>
       </c>
       <c r="R38" t="n">
-        <v>6661106.352564453</v>
+        <v>6661357.862056008</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111675574</v>
+        <v>111675580</v>
       </c>
       <c r="B39" t="n">
         <v>42708</v>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>690486.6986671695</v>
+        <v>690370.5537696742</v>
       </c>
       <c r="R39" t="n">
-        <v>6661102.281881573</v>
+        <v>6661292.946251329</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111675575</v>
+        <v>111675577</v>
       </c>
       <c r="B40" t="n">
         <v>42708</v>
@@ -6252,10 +6252,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>690480.7418955797</v>
+        <v>690430.9193086301</v>
       </c>
       <c r="R40" t="n">
-        <v>6661091.463633558</v>
+        <v>6661356.623615522</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111675580</v>
+        <v>111675572</v>
       </c>
       <c r="B41" t="n">
         <v>42708</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6392,10 +6392,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>690370.5537696742</v>
+        <v>690494.5947179901</v>
       </c>
       <c r="R41" t="n">
-        <v>6661292.946251329</v>
+        <v>6661104.692649405</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111675581</v>
+        <v>111675583</v>
       </c>
       <c r="B42" t="n">
         <v>42708</v>
@@ -6532,10 +6532,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>690413.7262835158</v>
+        <v>690415.8809986882</v>
       </c>
       <c r="R42" t="n">
-        <v>6661427.29424896</v>
+        <v>6661424.403280765</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111675577</v>
+        <v>111675584</v>
       </c>
       <c r="B43" t="n">
         <v>42708</v>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6672,10 +6672,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>690430.9193086301</v>
+        <v>690414.984509701</v>
       </c>
       <c r="R43" t="n">
-        <v>6661356.623615522</v>
+        <v>6661422.355185229</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111675572</v>
+        <v>111675571</v>
       </c>
       <c r="B44" t="n">
         <v>42708</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6812,10 +6812,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>690494.5947179901</v>
+        <v>690509.4285896254</v>
       </c>
       <c r="R44" t="n">
-        <v>6661104.692649405</v>
+        <v>6661040.900344189</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111675578</v>
+        <v>111675582</v>
       </c>
       <c r="B45" t="n">
         <v>42708</v>
@@ -6952,10 +6952,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>690368.3990222017</v>
+        <v>690352.3333891984</v>
       </c>
       <c r="R45" t="n">
-        <v>6661295.837351476</v>
+        <v>6661470.655078794</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111675583</v>
+        <v>111675578</v>
       </c>
       <c r="B46" t="n">
         <v>42708</v>
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>690415.8809986882</v>
+        <v>690368.3990222017</v>
       </c>
       <c r="R46" t="n">
-        <v>6661424.403280765</v>
+        <v>6661295.837351476</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111675582</v>
+        <v>111675574</v>
       </c>
       <c r="B47" t="n">
         <v>42708</v>
@@ -7232,10 +7232,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>690352.3333891984</v>
+        <v>690486.6986671695</v>
       </c>
       <c r="R47" t="n">
-        <v>6661470.655078794</v>
+        <v>6661102.281881573</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>

--- a/artfynd/A 6046-2019.xlsx
+++ b/artfynd/A 6046-2019.xlsx
@@ -6888,7 +6888,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111675582</v>
+        <v>111675578</v>
       </c>
       <c r="B45" t="n">
         <v>42708</v>
@@ -6952,10 +6952,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>690352.3333891984</v>
+        <v>690368.3990222017</v>
       </c>
       <c r="R45" t="n">
-        <v>6661470.655078794</v>
+        <v>6661295.837351476</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111675578</v>
+        <v>111675582</v>
       </c>
       <c r="B46" t="n">
         <v>42708</v>
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>690368.3990222017</v>
+        <v>690352.3333891984</v>
       </c>
       <c r="R46" t="n">
-        <v>6661295.837351476</v>
+        <v>6661470.655078794</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>

--- a/artfynd/A 6046-2019.xlsx
+++ b/artfynd/A 6046-2019.xlsx
@@ -5488,7 +5488,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111675581</v>
+        <v>111675582</v>
       </c>
       <c r="B35" t="n">
         <v>42708</v>
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>690413.7262835158</v>
+        <v>690352</v>
       </c>
       <c r="R35" t="n">
-        <v>6661427.29424896</v>
+        <v>6661471</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -5585,19 +5585,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -5628,7 +5618,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111675575</v>
+        <v>111675574</v>
       </c>
       <c r="B36" t="n">
         <v>42708</v>
@@ -5692,10 +5682,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>690480.7418955797</v>
+        <v>690487</v>
       </c>
       <c r="R36" t="n">
-        <v>6661091.463633558</v>
+        <v>6661102</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -5725,19 +5715,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -5768,7 +5748,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111675573</v>
+        <v>111675577</v>
       </c>
       <c r="B37" t="n">
         <v>42708</v>
@@ -5803,7 +5783,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -5832,10 +5812,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>690487.9917822112</v>
+        <v>690431</v>
       </c>
       <c r="R37" t="n">
-        <v>6661106.352564453</v>
+        <v>6661357</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -5865,19 +5845,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -5908,7 +5878,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111675579</v>
+        <v>111675578</v>
       </c>
       <c r="B38" t="n">
         <v>42708</v>
@@ -5943,7 +5913,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -5972,10 +5942,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>690425.8424831247</v>
+        <v>690368</v>
       </c>
       <c r="R38" t="n">
-        <v>6661357.862056008</v>
+        <v>6661296</v>
       </c>
       <c r="S38" t="n">
         <v>1</v>
@@ -6005,19 +5975,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -6112,10 +6072,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>690370.5537696742</v>
+        <v>690371</v>
       </c>
       <c r="R39" t="n">
-        <v>6661292.946251329</v>
+        <v>6661293</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -6145,19 +6105,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -6188,7 +6138,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111675577</v>
+        <v>111675584</v>
       </c>
       <c r="B40" t="n">
         <v>42708</v>
@@ -6223,7 +6173,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6252,10 +6202,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>690430.9193086301</v>
+        <v>690415</v>
       </c>
       <c r="R40" t="n">
-        <v>6661356.623615522</v>
+        <v>6661422</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
@@ -6285,19 +6235,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -6328,7 +6268,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111675572</v>
+        <v>111675573</v>
       </c>
       <c r="B41" t="n">
         <v>42708</v>
@@ -6392,10 +6332,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>690494.5947179901</v>
+        <v>690488</v>
       </c>
       <c r="R41" t="n">
-        <v>6661104.692649405</v>
+        <v>6661106</v>
       </c>
       <c r="S41" t="n">
         <v>1</v>
@@ -6425,19 +6365,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -6532,10 +6462,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>690415.8809986882</v>
+        <v>690416</v>
       </c>
       <c r="R42" t="n">
-        <v>6661424.403280765</v>
+        <v>6661424</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -6565,19 +6495,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -6608,7 +6528,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111675584</v>
+        <v>111675579</v>
       </c>
       <c r="B43" t="n">
         <v>42708</v>
@@ -6643,7 +6563,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6672,10 +6592,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>690414.984509701</v>
+        <v>690426</v>
       </c>
       <c r="R43" t="n">
-        <v>6661422.355185229</v>
+        <v>6661358</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -6705,19 +6625,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -6812,10 +6722,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>690509.4285896254</v>
+        <v>690509</v>
       </c>
       <c r="R44" t="n">
-        <v>6661040.900344189</v>
+        <v>6661041</v>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -6845,19 +6755,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6888,7 +6788,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111675578</v>
+        <v>111675572</v>
       </c>
       <c r="B45" t="n">
         <v>42708</v>
@@ -6923,7 +6823,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6952,10 +6852,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>690368.3990222017</v>
+        <v>690495</v>
       </c>
       <c r="R45" t="n">
-        <v>6661295.837351476</v>
+        <v>6661105</v>
       </c>
       <c r="S45" t="n">
         <v>1</v>
@@ -6985,19 +6885,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -7028,7 +6918,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111675582</v>
+        <v>111675581</v>
       </c>
       <c r="B46" t="n">
         <v>42708</v>
@@ -7092,10 +6982,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>690352.3333891984</v>
+        <v>690414</v>
       </c>
       <c r="R46" t="n">
-        <v>6661470.655078794</v>
+        <v>6661427</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
@@ -7125,19 +7015,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -7168,7 +7048,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111675574</v>
+        <v>111675575</v>
       </c>
       <c r="B47" t="n">
         <v>42708</v>
@@ -7232,10 +7112,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>690486.6986671695</v>
+        <v>690481</v>
       </c>
       <c r="R47" t="n">
-        <v>6661102.281881573</v>
+        <v>6661091</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>
@@ -7265,19 +7145,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">

--- a/artfynd/A 6046-2019.xlsx
+++ b/artfynd/A 6046-2019.xlsx
@@ -6008,7 +6008,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111675580</v>
+        <v>111675584</v>
       </c>
       <c r="B39" t="n">
         <v>42708</v>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6072,10 +6072,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>690371</v>
+        <v>690415</v>
       </c>
       <c r="R39" t="n">
-        <v>6661293</v>
+        <v>6661422</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -6138,7 +6138,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111675584</v>
+        <v>111675580</v>
       </c>
       <c r="B40" t="n">
         <v>42708</v>
@@ -6173,7 +6173,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>690415</v>
+        <v>690371</v>
       </c>
       <c r="R40" t="n">
-        <v>6661422</v>
+        <v>6661293</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
